--- a/材料计算器.xlsx
+++ b/材料计算器.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liyaz\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB84092-2CC9-4321-BEF6-0FCD0838C66E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694240E9-61CF-403A-A916-F08394AA15BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{DAF0EAC9-00AA-43AB-9567-A45FA7A0A0F8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>聚合剂</t>
   </si>
@@ -115,14 +115,6 @@
   </si>
   <si>
     <t>=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -165,12 +157,65 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bbs.nga.cn/read.php?tid=17155811</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在粗框中输入你需要的材料和库存中已有的材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入的库存量大于需求量时可能出现未知问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>明日方舟材料合成计算器</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Ver 1.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> By EBlaster </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,6 +271,45 @@
       <color theme="1"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -392,12 +476,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -459,9 +546,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -482,9 +566,32 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -661,13 +768,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>767625</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>234225</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -711,13 +818,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>64275</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>784275</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>234225</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -761,13 +868,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>61875</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>781875</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>234225</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -811,13 +918,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>49950</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>769950</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>234225</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -861,13 +968,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>57075</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>777075</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>234225</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -911,13 +1018,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>45150</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>765150</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>234225</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -961,13 +1068,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>61800</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>781800</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>234225</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1011,13 +1118,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>40350</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>760350</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>234225</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1061,13 +1168,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>47476</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>767476</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>234226</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1111,13 +1218,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>777150</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>234225</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1161,13 +1268,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>767625</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>234225</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1211,13 +1318,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>54750</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>7125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>774750</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>231825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1261,13 +1368,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>52350</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>14250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>772350</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>238950</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1311,13 +1418,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>40425</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>11850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>760425</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>236550</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1361,13 +1468,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>47550</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>9450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>767550</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>234150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1411,13 +1518,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>45150</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>7050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>765150</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>231750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1461,13 +1568,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>52275</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>14175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>772275</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>238875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1511,13 +1618,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>49875</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>11775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>769875</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>236475</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1561,13 +1668,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>57000</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>9375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>777000</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>234075</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1611,13 +1718,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>35550</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>6975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>755550</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>231675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1661,13 +1768,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>758100</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>234225</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1711,13 +1818,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>45225</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>16650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>765225</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>241350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1761,13 +1868,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>52350</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>23775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>772350</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1811,13 +1918,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>59475</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>21375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>779475</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>246075</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1861,13 +1968,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>47550</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>18975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>767550</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>243675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1911,13 +2018,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>54675</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>16575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>774675</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>241275</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2257,7 +2364,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E5384DA-45B6-4F98-AF4D-A7E32B48E35D}">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M13" sqref="M13"/>
@@ -2276,11 +2383,6 @@
       <c r="C1" s="1"/>
       <c r="D1" s="5"/>
       <c r="E1" s="6"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
       <c r="K1" s="7"/>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
@@ -2292,11 +2394,13 @@
       <c r="C2" s="2"/>
       <c r="D2" s="10"/>
       <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+      <c r="F2" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
       <c r="K2" s="7"/>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
@@ -2308,11 +2412,13 @@
       <c r="C3" s="2"/>
       <c r="D3" s="10"/>
       <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
+      <c r="F3" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="29"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
       <c r="K3" s="7"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
@@ -2320,71 +2426,68 @@
     </row>
     <row r="4" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
-      <c r="B4" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="23" t="s">
+      <c r="B4" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="22" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
+      <c r="F4" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
       <c r="K4" s="7"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
     </row>
     <row r="5" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="26">
-        <v>3</v>
-      </c>
+      <c r="A5" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="25"/>
       <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
+      <c r="F5" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
       <c r="K5" s="15"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
     </row>
-    <row r="6" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="1"/>
+    <row r="6" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="10"/>
       <c r="C7" s="2"/>
       <c r="D7" s="17"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="1"/>
       <c r="L7" s="8"/>
     </row>
     <row r="8" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2403,156 +2506,126 @@
     </row>
     <row r="9" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>16</v>
-      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="2"/>
       <c r="L9" s="8"/>
     </row>
     <row r="10" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="14">
-        <f>D5</f>
+      <c r="A10" s="4"/>
+      <c r="B10" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="14">
-        <f>C5</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="14">
-        <f>D5</f>
-        <v>3</v>
-      </c>
-      <c r="G10" s="14">
-        <f>D5</f>
-        <v>3</v>
-      </c>
-      <c r="H10" s="14">
-        <f>2*C5</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="14">
-        <f>B5</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="14">
-        <f>B5</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="14">
-        <f>B5</f>
-        <v>0</v>
+      <c r="G10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="L10" s="8"/>
     </row>
     <row r="11" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24">
-        <v>2</v>
-      </c>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="25"/>
+      <c r="A11" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="14">
-        <f>B10+B11</f>
-        <v>3</v>
-      </c>
-      <c r="C12" s="14">
-        <f t="shared" ref="C12:K12" si="0">C10+C11</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="14">
-        <f>D11</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="14">
-        <f>E11</f>
-        <v>2</v>
-      </c>
-      <c r="F12" s="14">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G12" s="14">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H12" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+    <row r="12" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="24"/>
     </row>
     <row r="13" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
+      <c r="A13" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="14">
+        <f>D5-D6+B11-B12</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="14">
+        <f>+F13+I13</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="14">
+        <f>D11-D12</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="14">
+        <f>E11-E12</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="14">
+        <f>D5-D6+F11-F12</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="14">
+        <f>D5-D6+G11-G12</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="14">
+        <f>2*(C5-C6)+H11-H12</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="14">
+        <f>B5-B6+I11-I12</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="14">
+        <f>B5-B6+J11-J12</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="14">
+        <f>B5-B6+K11-K12</f>
+        <v>0</v>
+      </c>
       <c r="L13" s="19"/>
     </row>
     <row r="14" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2566,8 +2639,8 @@
       <c r="H14" s="2"/>
       <c r="I14" s="18"/>
       <c r="J14" s="2"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="19"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="8"/>
     </row>
     <row r="15" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
@@ -2584,163 +2657,134 @@
     </row>
     <row r="16" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
-      <c r="B16" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="K16" s="11" t="s">
-        <v>21</v>
-      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="8"/>
     </row>
     <row r="17" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="14">
-        <f>2*K10+2*K11+2*C10+2*C11+4*B11+4*B10</f>
-        <v>12</v>
-      </c>
-      <c r="C17" s="14">
-        <f>I10+I11+C10+C11+F10+F11</f>
-        <v>3</v>
-      </c>
-      <c r="D17" s="14">
-        <f>2*D11+F10+F11+J10+J11</f>
-        <v>3</v>
-      </c>
-      <c r="E17" s="14">
-        <f>G10+G11+H10+H11+2*E11</f>
+      <c r="A17" s="4"/>
+      <c r="B17" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="14">
-        <f>2*F10+2*F11+E11+I10+I11</f>
+      <c r="E17" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="14">
-        <f>K11+K10+2*G10+2*G11+D11</f>
-        <v>6</v>
-      </c>
-      <c r="H17" s="14">
-        <f>D11+H10+H11</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="14">
-        <f>I10+I11+C10+C11</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="14">
-        <f>2*J11+2*J10+G10+G11+E11</f>
-        <v>5</v>
-      </c>
-      <c r="K17" s="14">
-        <f>2*K10+2*H10+2*K11+2*H11</f>
-        <v>0</v>
+      <c r="H17" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="25"/>
+      <c r="A18" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="24"/>
     </row>
-    <row r="19" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="14">
-        <f>B17+B18</f>
-        <v>12</v>
-      </c>
-      <c r="C19" s="14">
-        <f t="shared" ref="C19:K19" si="1">C17+C18</f>
-        <v>3</v>
-      </c>
-      <c r="D19" s="14">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="E19" s="14">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="F19" s="14">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="G19" s="14">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="H19" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="14">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="K19" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+    <row r="19" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="24"/>
     </row>
     <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
+      <c r="A20" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="14">
+        <f>2*(C13+K13)+4*B13+B18-B19</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="14">
+        <f>C13+F13+I13+C18-C19</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="14">
+        <f>2*D13+F13+J13+D18-D19</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="14">
+        <f>G13+H13+2*E13-E19+E18</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="14">
+        <f>2*F13+E13+I13+F18-F19</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="14">
+        <f>K13+2*G13+D13+G18-G19</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="14">
+        <f>D13+H13+H18-H19</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="14">
+        <f>I13+C13+I18-I19</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="14">
+        <f>2*J13+G13+E13+J18-J19</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="14">
+        <f>2*H13+2*K13+K18-K19</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
       <c r="H21" s="15"/>
       <c r="I21" s="15"/>
       <c r="J21" s="15"/>
@@ -2748,69 +2792,49 @@
     </row>
     <row r="22" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
       <c r="H22" s="15"/>
       <c r="I22" s="15"/>
       <c r="J22" s="15"/>
       <c r="K22" s="15"/>
     </row>
     <row r="23" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="20"/>
-      <c r="B23" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>26</v>
-      </c>
+      <c r="A23" s="4"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
       <c r="H23" s="15"/>
       <c r="I23" s="15"/>
       <c r="J23" s="15"/>
       <c r="K23" s="15"/>
     </row>
     <row r="24" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="14">
-        <f t="shared" ref="B24:G24" si="2">3*B17+3*B18</f>
-        <v>36</v>
-      </c>
-      <c r="C24" s="14">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="D24" s="14">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="E24" s="14">
-        <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="F24" s="14">
-        <f t="shared" si="2"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="12" t="s">
         <v>24</v>
-      </c>
-      <c r="G24" s="14">
-        <f t="shared" si="2"/>
-        <v>18</v>
       </c>
       <c r="H24" s="15"/>
       <c r="I24" s="15"/>
@@ -2818,54 +2842,73 @@
       <c r="K24" s="15"/>
     </row>
     <row r="25" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="25"/>
+      <c r="A25" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="24"/>
       <c r="H25" s="15"/>
       <c r="I25" s="15"/>
       <c r="J25" s="15"/>
       <c r="K25" s="15"/>
     </row>
-    <row r="26" spans="1:11" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="13" t="s">
+    <row r="26" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+    </row>
+    <row r="27" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="14">
-        <f>B24+B25</f>
-        <v>36</v>
-      </c>
-      <c r="C26" s="14">
-        <f t="shared" ref="C26:G26" si="3">C24+C25</f>
-        <v>9</v>
-      </c>
-      <c r="D26" s="14">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="E26" s="14">
-        <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-      <c r="F26" s="14">
-        <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="G26" s="14">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
+      <c r="B27" s="14">
+        <f>3*B20+B25-B26</f>
+        <v>0</v>
+      </c>
+      <c r="C27" s="14">
+        <f t="shared" ref="C27:G27" si="0">3*C20+C25-C26</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
     </row>
+    <row r="28" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/材料计算器.xlsx
+++ b/材料计算器.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liyaz\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694240E9-61CF-403A-A916-F08394AA15BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3652AF9-73F4-4465-A207-93F0844B2DB3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{DAF0EAC9-00AA-43AB-9567-A45FA7A0A0F8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="64">
   <si>
     <t>聚合剂</t>
   </si>
@@ -175,6 +175,118 @@
   </si>
   <si>
     <t>输入的库存量大于需求量时可能出现未知问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以上四个材料为掉落限定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-4 4-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S4-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-4 4-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-6 3-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-12 S3-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-8 S3-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-7 S2-12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-1 S3-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2-1 3-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-2 S3-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-5 4-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-8 S4-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-9 4-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-1 4-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-3 4-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-10 4-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-2 4-7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -197,7 +309,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve"> Ver 1.1</t>
+      <t xml:space="preserve"> Ver 1.2</t>
     </r>
     <r>
       <rPr>
@@ -332,7 +444,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -475,6 +587,72 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -484,7 +662,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -501,12 +679,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
@@ -572,21 +744,48 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1104,7 +1303,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6157800" y="1247775"/>
+          <a:off x="6157800" y="1743075"/>
           <a:ext cx="720000" cy="720000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1268,13 +1467,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>767625</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>234225</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1318,13 +1517,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>54750</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>7125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>774750</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>231825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1368,13 +1567,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>52350</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>14250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>772350</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>238950</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1418,13 +1617,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>40425</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>11850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>760425</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>236550</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1468,13 +1667,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>47550</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>9450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>767550</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>234150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1518,13 +1717,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>45150</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>7050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>765150</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>231750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1568,13 +1767,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>52275</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>14175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>772275</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>238875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1618,13 +1817,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>49875</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>11775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>769875</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>236475</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1668,13 +1867,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>57000</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>9375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>777000</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>234075</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1718,13 +1917,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>35550</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>6975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>755550</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>231675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1768,13 +1967,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>758100</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>234225</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1818,13 +2017,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>45225</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>16650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>765225</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>241350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1868,13 +2067,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>52350</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>23775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>772350</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1918,13 +2117,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>59475</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>21375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>779475</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>246075</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1968,13 +2167,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>47550</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>18975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>767550</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>243675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2018,13 +2217,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>54675</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>16575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>774675</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>241275</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2366,15 +2565,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E5384DA-45B6-4F98-AF4D-A7E32B48E35D}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="9" customWidth="1"/>
-    <col min="2" max="14" width="10.625" style="9" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="5.625" style="7" customWidth="1"/>
+    <col min="2" max="14" width="10.625" style="7" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2382,531 +2581,613 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="5"/>
-      <c r="E1" s="6"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
+      <c r="F1" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="28"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
     </row>
     <row r="2" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="F2" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="33"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="35"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
     </row>
     <row r="3" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="F3" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="35"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
     </row>
     <row r="4" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
+      <c r="F4" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="31"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
     </row>
     <row r="5" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
     </row>
     <row r="6" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="25"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
     </row>
     <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
-      <c r="B7" s="10"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="17"/>
+      <c r="D7" s="15"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="16"/>
+      <c r="F7" s="14"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="16"/>
+      <c r="H7" s="14"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="16"/>
+      <c r="J7" s="14"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="8"/>
+      <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
-      <c r="B8" s="10"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="17"/>
+      <c r="D8" s="15"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="17"/>
+      <c r="F8" s="15"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="17"/>
+      <c r="H8" s="15"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="17"/>
+      <c r="J8" s="15"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="8"/>
+      <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="10"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="17"/>
+      <c r="D9" s="15"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="17"/>
+      <c r="F9" s="15"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="17"/>
+      <c r="H9" s="15"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="17"/>
+      <c r="J9" s="15"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="8"/>
+      <c r="L9" s="6"/>
     </row>
-    <row r="10" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="8"/>
+      <c r="L10" s="6"/>
     </row>
     <row r="11" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="24"/>
+      <c r="A11" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" s="39" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="12" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="22"/>
+    </row>
+    <row r="13" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="24"/>
-    </row>
-    <row r="13" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="14">
-        <f>D5-D6+B11-B12</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="14">
-        <f>+F13+I13</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="14">
-        <f>D11-D12</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="14">
-        <f>E11-E12</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="14">
-        <f>D5-D6+F11-F12</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="14">
-        <f>D5-D6+G11-G12</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="14">
-        <f>2*(C5-C6)+H11-H12</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="14">
-        <f>B5-B6+I11-I12</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="14">
-        <f>B5-B6+J11-J12</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="14">
-        <f>B5-B6+K11-K12</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="19"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="17"/>
     </row>
     <row r="14" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="8"/>
+      <c r="A14" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="12">
+        <f>D5-D6+B12-B13</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="12">
+        <f>+F14+I14</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="12">
+        <f>D12-D13</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="12">
+        <f>E12-E13</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="12">
+        <f>D5-D6+F12-F13</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="12">
+        <f>D5-D6+G12-G13</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="12">
+        <f>2*(C5-C6)+H12-H13</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="12">
+        <f>B5-B6+I12-I13</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="12">
+        <f>B5-B6+J12-J13</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="12">
+        <f>B5-B6+K12-K13</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="6"/>
     </row>
     <row r="15" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="18"/>
+      <c r="C15" s="16"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="18"/>
+      <c r="E15" s="16"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="18"/>
+      <c r="G15" s="16"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="18"/>
+      <c r="I15" s="16"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
+      <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="18"/>
+      <c r="C16" s="16"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="18"/>
+      <c r="E16" s="16"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="18"/>
+      <c r="G16" s="16"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="18"/>
+      <c r="I16" s="16"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="8"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="6"/>
     </row>
-    <row r="17" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="2"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C18" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D18" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E18" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F18" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G18" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H18" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="I18" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="12" t="s">
+      <c r="J18" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K17" s="11" t="s">
+      <c r="K18" s="9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="24"/>
     </row>
     <row r="19" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="J19" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="K19" s="39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="22"/>
+    </row>
+    <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="24"/>
-    </row>
-    <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="14">
-        <f>2*(C13+K13)+4*B13+B18-B19</f>
-        <v>0</v>
-      </c>
-      <c r="C20" s="14">
-        <f>C13+F13+I13+C18-C19</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="14">
-        <f>2*D13+F13+J13+D18-D19</f>
-        <v>0</v>
-      </c>
-      <c r="E20" s="14">
-        <f>G13+H13+2*E13-E19+E18</f>
-        <v>0</v>
-      </c>
-      <c r="F20" s="14">
-        <f>2*F13+E13+I13+F18-F19</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="14">
-        <f>K13+2*G13+D13+G18-G19</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="14">
-        <f>D13+H13+H18-H19</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="14">
-        <f>I13+C13+I18-I19</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="14">
-        <f>2*J13+G13+E13+J18-J19</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="14">
-        <f>2*H13+2*K13+K18-K19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="22"/>
     </row>
     <row r="22" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
+      <c r="A22" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="12">
+        <f>2*(C14+K14)+4*B14+B20-B21</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="12">
+        <f>C14+F14+I14+C20-C21</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="12">
+        <f>2*D14+F14+J14+D20-D21</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="12">
+        <f>G14+H14+2*E14-E21+E20</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="12">
+        <f>2*F14+E14+I14+F20-F21</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="12">
+        <f>K14+2*G14+D14+G20-G21</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="12">
+        <f>D14+H14+H20-H21</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="12">
+        <f>I14+C14+I20-I21</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="12">
+        <f>2*J14+G14+E14+J20-J21</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="12">
+        <f>2*H14+2*K14+K20-K21</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="38" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="24" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="12" t="s">
+    <row r="24" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+    </row>
+    <row r="25" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="4"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+    </row>
+    <row r="26" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="18"/>
+      <c r="B26" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C26" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D26" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E26" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F26" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="G26" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
     </row>
-    <row r="25" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="27" t="s">
+    <row r="27" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="G27" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+    </row>
+    <row r="28" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
     </row>
-    <row r="26" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
+    <row r="29" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
     </row>
-    <row r="27" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
+    <row r="30" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="14">
-        <f>3*B20+B25-B26</f>
+      <c r="B30" s="12">
+        <f t="shared" ref="B30:G30" si="0">3*B22+B28-B29</f>
         <v>0</v>
       </c>
-      <c r="C27" s="14">
-        <f t="shared" ref="C27:G27" si="0">3*C20+C25-C26</f>
-        <v>0</v>
-      </c>
-      <c r="D27" s="14">
+      <c r="C30" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E27" s="14">
+      <c r="D30" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F27" s="14">
+      <c r="E30" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G27" s="14">
+      <c r="F30" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
+      <c r="G30" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/材料计算器.xlsx
+++ b/材料计算器.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liyaz\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3652AF9-73F4-4465-A207-93F0844B2DB3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61CC7BF0-7A20-43E1-B7F8-ACBFB87A5BC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{DAF0EAC9-00AA-43AB-9567-A45FA7A0A0F8}"/>
   </bookViews>
@@ -306,17 +306,19 @@
         <b/>
         <sz val="14"/>
         <color theme="1"/>
-        <rFont val="Consolas"/>
+        <rFont val="微软雅黑"/>
         <family val="3"/>
+        <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> Ver 1.2</t>
+      <t xml:space="preserve"> Ver 1.2.1</t>
     </r>
     <r>
       <rPr>
         <sz val="14"/>
         <color theme="1"/>
-        <rFont val="Consolas"/>
+        <rFont val="微软雅黑"/>
         <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> By EBlaster </t>
     </r>
@@ -327,7 +329,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -421,6 +423,13 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -2565,8 +2574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E5384DA-45B6-4F98-AF4D-A7E32B48E35D}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2818,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="12">
-        <f>+F14+I14</f>
+        <f>C5-C6+C12-C13</f>
         <v>0</v>
       </c>
       <c r="D14" s="12">

--- a/材料计算器.xlsx
+++ b/材料计算器.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liyaz\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61CC7BF0-7A20-43E1-B7F8-ACBFB87A5BC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD83D91C-79F9-45BD-81EA-5867AD1D73FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{DAF0EAC9-00AA-43AB-9567-A45FA7A0A0F8}"/>
   </bookViews>
@@ -310,7 +310,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> Ver 1.2.1</t>
+      <t xml:space="preserve"> Ver 1.2.2</t>
     </r>
     <r>
       <rPr>
@@ -2575,7 +2575,7 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="12">
-        <f>D14+H14+H20-H21</f>
+        <f>D14+H14+J14+H20-H21</f>
         <v>0</v>
       </c>
       <c r="I22" s="12">
@@ -3043,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="12">
-        <f>2*H14+2*K14+K20-K21</f>
+        <f>H14+K14+K20-K21</f>
         <v>0</v>
       </c>
     </row>
@@ -3173,32 +3173,31 @@
         <v>22</v>
       </c>
       <c r="B30" s="12">
-        <f t="shared" ref="B30:G30" si="0">3*B22+B28-B29</f>
+        <f>5*B22+B28-B29</f>
         <v>0</v>
       </c>
       <c r="C30" s="12">
-        <f t="shared" si="0"/>
+        <f>4*C22+C28-C29</f>
         <v>0</v>
       </c>
       <c r="D30" s="12">
-        <f t="shared" si="0"/>
+        <f>4*D22+D28-D29</f>
         <v>0</v>
       </c>
       <c r="E30" s="12">
-        <f t="shared" si="0"/>
+        <f>4*E22+E28-E29</f>
         <v>0</v>
       </c>
       <c r="F30" s="12">
-        <f t="shared" si="0"/>
+        <f>4*F22+F28-F29</f>
         <v>0</v>
       </c>
       <c r="G30" s="12">
-        <f t="shared" si="0"/>
+        <f>4*G22+G28-G29</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/材料计算器.xlsx
+++ b/材料计算器.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liyaz\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD83D91C-79F9-45BD-81EA-5867AD1D73FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25393BC-5B0B-46D4-BF64-0528D34E5B77}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{DAF0EAC9-00AA-43AB-9567-A45FA7A0A0F8}"/>
   </bookViews>
@@ -2575,7 +2575,7 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3198,6 +3198,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/材料计算器.xlsx
+++ b/材料计算器.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20343"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liyaz\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haotian\Dropbox\Arknight_materials_calculator-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25393BC-5B0B-46D4-BF64-0528D34E5B77}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{DAF0EAC9-00AA-43AB-9567-A45FA7A0A0F8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="材料计算器" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -171,10 +170,6 @@
   </si>
   <si>
     <t>在粗框中输入你需要的材料和库存中已有的材料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入的库存量大于需求量时可能出现未知问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -324,23 +319,26 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>=</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -395,22 +393,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -453,7 +435,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -662,16 +644,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -747,59 +746,67 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -831,7 +838,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>767625</xdr:colOff>
+      <xdr:colOff>700950</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>224700</xdr:rowOff>
     </xdr:to>
@@ -880,8 +887,8 @@
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>765224</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3224</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>224700</xdr:rowOff>
     </xdr:to>
@@ -930,8 +937,8 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>772351</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>826</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>234225</xdr:rowOff>
     </xdr:to>
@@ -976,13 +983,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>767625</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:colOff>700950</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>234225</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1026,13 +1033,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>64275</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>784275</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3225</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>234225</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1076,13 +1083,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>61875</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>781875</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>825</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>234225</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1126,13 +1133,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>49950</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>769950</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:colOff>703275</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>234225</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1176,13 +1183,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>57075</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>777075</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:colOff>700875</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>234225</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1226,13 +1233,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>45150</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>765150</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3150</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>234225</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1276,13 +1283,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>61800</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>781800</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>750</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>234225</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1326,13 +1333,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>40350</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>760350</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:colOff>703200</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>234225</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1376,13 +1383,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>47476</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>767476</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:colOff>700801</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>234226</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1426,13 +1433,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>777150</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:colOff>700950</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>234225</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1476,13 +1483,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>767625</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:colOff>700950</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>234225</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1526,13 +1533,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>54750</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>7125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>774750</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3225</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>231825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1576,13 +1583,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>52350</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>14250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>772350</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>825</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>238950</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1626,13 +1633,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>40425</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>11850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>760425</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:colOff>703275</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>236550</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1676,13 +1683,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>47550</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>9450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>767550</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:colOff>700875</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>234150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1726,13 +1733,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>45150</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>7050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>765150</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3150</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>231750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1776,13 +1783,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>52275</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>14175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>772275</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>750</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>238875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1826,13 +1833,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>49875</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>11775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>769875</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:colOff>703200</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>236475</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1876,13 +1883,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>57000</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>9375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>777000</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:colOff>700800</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>234075</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1926,13 +1933,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>35550</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>6975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>755550</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3075</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>231675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1976,13 +1983,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>758100</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:colOff>700950</xdr:colOff>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>234225</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2026,13 +2033,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>45225</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>16650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>765225</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3225</xdr:colOff>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>241350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2076,13 +2083,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>52350</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>23775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>772350</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>825</xdr:colOff>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2126,13 +2133,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>59475</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>21375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>779475</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:colOff>703275</xdr:colOff>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>246075</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2176,13 +2183,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>47550</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>18975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>767550</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:colOff>700875</xdr:colOff>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>243675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2226,13 +2233,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>54675</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>16575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>774675</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3150</xdr:colOff>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>241275</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2571,69 +2578,72 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E5384DA-45B6-4F98-AF4D-A7E32B48E35D}">
-  <dimension ref="A1:N30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="7" customWidth="1"/>
-    <col min="2" max="14" width="10.625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" style="7" customWidth="1"/>
+    <col min="2" max="14" width="10.5703125" style="7" customWidth="1"/>
     <col min="15" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="4"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="5"/>
-      <c r="F1" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="28"/>
+      <c r="F1" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="35"/>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
     </row>
-    <row r="2" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="8"/>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="35"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="36"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="4"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="8"/>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="35"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="37"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
     </row>
-    <row r="4" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="4"/>
       <c r="B4" s="19" t="s">
         <v>29</v>
@@ -2644,67 +2654,79 @@
       <c r="D4" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="31"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="40"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A5" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="23"/>
+      <c r="B5" s="41">
+        <v>2</v>
+      </c>
+      <c r="C5" s="22">
+        <v>4</v>
+      </c>
+      <c r="D5" s="23">
+        <v>8</v>
+      </c>
       <c r="E5" s="13"/>
       <c r="K5" s="13"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A6" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="22"/>
+      <c r="B6" s="41">
+        <v>3</v>
+      </c>
+      <c r="C6" s="22">
+        <v>1</v>
+      </c>
       <c r="D6" s="23"/>
     </row>
-    <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="6"/>
+    <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="12">
+        <f>MAX(B5-B6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="12">
+        <f>MAX(C5-C6,0)</f>
+        <v>3</v>
+      </c>
+      <c r="D7" s="12">
+        <f>MAX(D5-D6,0)</f>
+        <v>8</v>
+      </c>
     </row>
-    <row r="8" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="8"/>
       <c r="C8" s="2"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="2"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="1"/>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="8"/>
       <c r="C9" s="2"/>
@@ -2718,166 +2740,177 @@
       <c r="K9" s="2"/>
       <c r="L9" s="6"/>
     </row>
-    <row r="10" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="4"/>
-      <c r="B10" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>16</v>
-      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="2"/>
       <c r="L10" s="6"/>
     </row>
-    <row r="11" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="39" t="s">
+    <row r="11" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="4"/>
+      <c r="B11" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A12" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="D12" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="E12" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="F12" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="39" t="s">
+      <c r="G12" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="39" t="s">
+      <c r="H12" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="39" t="s">
+      <c r="I12" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="I11" s="39" t="s">
+      <c r="J12" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="J11" s="39" t="s">
+      <c r="K12" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="K11" s="39" t="s">
-        <v>47</v>
-      </c>
     </row>
-    <row r="12" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+    <row r="13" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A13" s="24" t="s">
         <v>30</v>
-      </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="22"/>
-    </row>
-    <row r="13" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
-        <v>31</v>
       </c>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
+      <c r="E13" s="21">
+        <v>3</v>
+      </c>
+      <c r="F13" s="21">
+        <v>5</v>
+      </c>
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
       <c r="J13" s="21"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="17"/>
+      <c r="K13" s="22">
+        <v>5</v>
+      </c>
     </row>
-    <row r="14" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
+    <row r="14" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A14" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21">
+        <v>4</v>
+      </c>
+      <c r="F14" s="21">
+        <v>3</v>
+      </c>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="17"/>
+    </row>
+    <row r="15" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="12">
-        <f>D5-D6+B12-B13</f>
+      <c r="B15" s="12">
+        <f>MAX(D7+B13-B14,0)</f>
+        <v>8</v>
+      </c>
+      <c r="C15" s="12">
+        <f>MAX(C7+C13-C14,0)</f>
+        <v>3</v>
+      </c>
+      <c r="D15" s="12">
+        <f>MAX(D13-D14,0)</f>
         <v>0</v>
       </c>
-      <c r="C14" s="12">
-        <f>C5-C6+C12-C13</f>
+      <c r="E15" s="12">
+        <f>MAX(E13-E14,0)</f>
         <v>0</v>
       </c>
-      <c r="D14" s="12">
-        <f>D12-D13</f>
+      <c r="F15" s="12">
+        <f>MAX(D7+F13-F14,0)</f>
+        <v>10</v>
+      </c>
+      <c r="G15" s="12">
+        <f>MAX(D7+G13-G14,0)</f>
+        <v>8</v>
+      </c>
+      <c r="H15" s="12">
+        <f>MAX(2*C7+H13-H14,0)</f>
+        <v>6</v>
+      </c>
+      <c r="I15" s="12">
+        <f>MAX(B7+I13-I14,0)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="12">
-        <f>E12-E13</f>
+      <c r="J15" s="12">
+        <f>MAX(B7+J13-J14,0)</f>
         <v>0</v>
       </c>
-      <c r="F14" s="12">
-        <f>D5-D6+F12-F13</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="12">
-        <f>D5-D6+G12-G13</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="12">
-        <f>2*(C5-C6)+H12-H13</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="12">
-        <f>B5-B6+I12-I13</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="12">
-        <f>B5-B6+J12-J13</f>
-        <v>0</v>
-      </c>
-      <c r="K14" s="12">
-        <f>B5-B6+K12-K13</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="6"/>
+      <c r="K15" s="12">
+        <f>MAX(B7+K13-K14,0)</f>
+        <v>5</v>
+      </c>
+      <c r="L15" s="6"/>
     </row>
-    <row r="15" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="4"/>
       <c r="B16" s="2"/>
       <c r="C16" s="16"/>
@@ -2888,10 +2921,9 @@
       <c r="H16" s="2"/>
       <c r="I16" s="16"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="6"/>
+      <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="4"/>
       <c r="B17" s="2"/>
       <c r="C17" s="16"/>
@@ -2902,260 +2934,269 @@
       <c r="H17" s="2"/>
       <c r="I17" s="16"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="3"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="6"/>
     </row>
-    <row r="18" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="4"/>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="2"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="4"/>
+      <c r="B19" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C19" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D19" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E19" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F19" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G19" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="H19" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I18" s="10" t="s">
+      <c r="I19" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="10" t="s">
+      <c r="J19" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K18" s="9" t="s">
+      <c r="K19" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
+    <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A20" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="39" t="s">
+      <c r="C20" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="39" t="s">
+      <c r="E20" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="39" t="s">
+      <c r="G20" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="G19" s="39" t="s">
+      <c r="I20" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="H19" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="I19" s="39" t="s">
+      <c r="J20" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="K20" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="J19" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="K19" s="39" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
+    <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A21" s="24" t="s">
         <v>30</v>
-      </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="22"/>
-    </row>
-    <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
-        <v>31</v>
       </c>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
+      <c r="D21" s="21">
+        <v>3</v>
+      </c>
+      <c r="E21" s="21">
+        <v>4</v>
+      </c>
+      <c r="F21" s="21">
+        <v>3</v>
+      </c>
       <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
+      <c r="H21" s="21">
+        <v>1</v>
+      </c>
       <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
+      <c r="J21" s="21">
+        <v>3</v>
+      </c>
       <c r="K21" s="22"/>
     </row>
-    <row r="22" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="11" t="s">
+    <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A22" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="22"/>
+    </row>
+    <row r="23" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A23" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="12">
-        <f>2*(C14+K14)+4*B14+B20-B21</f>
-        <v>0</v>
-      </c>
-      <c r="C22" s="12">
-        <f>C14+F14+I14+C20-C21</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="12">
-        <f>2*D14+F14+J14+D20-D21</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="12">
-        <f>G14+H14+2*E14-E21+E20</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="12">
-        <f>2*F14+E14+I14+F20-F21</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="12">
-        <f>K14+2*G14+D14+G20-G21</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="12">
-        <f>D14+H14+J14+H20-H21</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="12">
-        <f>I14+C14+I20-I21</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="12">
-        <f>2*J14+G14+E14+J20-J21</f>
-        <v>0</v>
-      </c>
-      <c r="K22" s="12">
-        <f>H14+K14+K20-K21</f>
-        <v>0</v>
+      <c r="B23" s="12">
+        <f>MAX(2*(C15+K15)+4*B15+B21-B22,0)</f>
+        <v>48</v>
+      </c>
+      <c r="C23" s="12">
+        <f>MAX(C15+F15+I15+C21-C22,0)</f>
+        <v>13</v>
+      </c>
+      <c r="D23" s="12">
+        <f>MAX(2*D15+F15+J15+D21-D22,0)</f>
+        <v>13</v>
+      </c>
+      <c r="E23" s="12">
+        <f>MAX(G15+H15+2*E15-E22+E21,0)</f>
+        <v>18</v>
+      </c>
+      <c r="F23" s="12">
+        <f>MAX(2*F15+E15+I15+F21-F22,0)</f>
+        <v>23</v>
+      </c>
+      <c r="G23" s="12">
+        <f>MAX(K15+2*G15+D15+G21-G22,0)</f>
+        <v>21</v>
+      </c>
+      <c r="H23" s="12">
+        <f>MAX(D15+H15+J15+H21-H22,0)</f>
+        <v>7</v>
+      </c>
+      <c r="I23" s="12">
+        <f>MAX(I15+C15+I21-I22,0)</f>
+        <v>3</v>
+      </c>
+      <c r="J23" s="12">
+        <f>MAX(2*J15+G15+E15+J21-J22,0)</f>
+        <v>11</v>
+      </c>
+      <c r="K23" s="12">
+        <f>MAX(H15+K15+K21-K22,0)</f>
+        <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="38" t="s">
-        <v>35</v>
+    <row r="24" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="27" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-    </row>
-    <row r="25" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="4"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
       <c r="J25" s="13"/>
       <c r="K25" s="13"/>
     </row>
-    <row r="26" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="18"/>
-      <c r="B26" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>24</v>
-      </c>
+    <row r="26" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A26" s="4"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
       <c r="J26" s="13"/>
       <c r="K26" s="13"/>
     </row>
-    <row r="27" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="E27" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="F27" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="G27" s="39" t="s">
-        <v>54</v>
-      </c>
+    <row r="27" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A27" s="18"/>
+      <c r="B27" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="13"/>
       <c r="I27" s="13"/>
       <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
     </row>
-    <row r="28" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="13"/>
+    <row r="28" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A28" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="28" t="s">
+        <v>53</v>
+      </c>
       <c r="I28" s="13"/>
       <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
     </row>
-    <row r="29" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="25" t="s">
-        <v>31</v>
+    <row r="29" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A29" s="24" t="s">
+        <v>30</v>
       </c>
       <c r="B29" s="21"/>
       <c r="C29" s="21"/>
@@ -3163,42 +3204,63 @@
       <c r="E29" s="21"/>
       <c r="F29" s="21"/>
       <c r="G29" s="22"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
     </row>
-    <row r="30" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="11" t="s">
+    <row r="30" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A30" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+    </row>
+    <row r="31" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A31" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="12">
-        <f>5*B22+B28-B29</f>
-        <v>0</v>
-      </c>
-      <c r="C30" s="12">
-        <f>4*C22+C28-C29</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="12">
-        <f>4*D22+D28-D29</f>
-        <v>0</v>
-      </c>
-      <c r="E30" s="12">
-        <f>4*E22+E28-E29</f>
-        <v>0</v>
-      </c>
-      <c r="F30" s="12">
-        <f>4*F22+F28-F29</f>
-        <v>0</v>
-      </c>
-      <c r="G30" s="12">
-        <f>4*G22+G28-G29</f>
-        <v>0</v>
+      <c r="B31" s="12">
+        <f>MAX(5*B23+B29-B30,0)</f>
+        <v>240</v>
+      </c>
+      <c r="C31" s="12">
+        <f>MAX(4*C23+C29-C30,0)</f>
+        <v>52</v>
+      </c>
+      <c r="D31" s="12">
+        <f>MAX(4*D23+D29-D30,0)</f>
+        <v>52</v>
+      </c>
+      <c r="E31" s="12">
+        <f>MAX(4*E23+E29-E30,0)</f>
+        <v>72</v>
+      </c>
+      <c r="F31" s="12">
+        <f>MAX(4*F23+F29-F30,0)</f>
+        <v>92</v>
+      </c>
+      <c r="G31" s="12">
+        <f>MAX(4*G23+G29-G30,0)</f>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="4">
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="F4:K4"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/材料计算器.xlsx
+++ b/材料计算器.xlsx
@@ -285,6 +285,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>=</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -305,7 +308,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> Ver 1.2.2</t>
+      <t xml:space="preserve"> Ver 1.2.4</t>
     </r>
     <r>
       <rPr>
@@ -317,10 +320,6 @@
       </rPr>
       <t xml:space="preserve"> By EBlaster </t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>=</t>
   </si>
 </sst>
 </file>
@@ -761,10 +760,17 @@
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -775,19 +781,16 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -799,10 +802,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2582,7 +2581,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2597,14 +2596,14 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="5"/>
-      <c r="F1" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="35"/>
+      <c r="F1" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="32"/>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
@@ -2614,14 +2613,14 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="8"/>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="36"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="35"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
@@ -2631,14 +2630,14 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="8"/>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="38"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
@@ -2654,12 +2653,12 @@
       <c r="D4" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="38"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="40"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="41"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
@@ -2668,7 +2667,7 @@
       <c r="A5" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="41">
+      <c r="B5" s="29">
         <v>2</v>
       </c>
       <c r="C5" s="22">
@@ -2687,7 +2686,7 @@
       <c r="A6" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="41">
+      <c r="B6" s="29">
         <v>3</v>
       </c>
       <c r="C6" s="22">
@@ -2697,7 +2696,7 @@
     </row>
     <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B7" s="12">
         <f>MAX(B5-B6,0)</f>
@@ -3254,7 +3253,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
     <mergeCell ref="F1:K1"/>
     <mergeCell ref="F2:K2"/>

--- a/材料计算器.xlsx
+++ b/材料计算器.xlsx
@@ -308,7 +308,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> Ver 1.2.4</t>
+      <t xml:space="preserve"> Ver 1.2.3</t>
     </r>
     <r>
       <rPr>
@@ -2581,7 +2581,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2667,15 +2667,9 @@
       <c r="A5" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="29">
-        <v>2</v>
-      </c>
-      <c r="C5" s="22">
-        <v>4</v>
-      </c>
-      <c r="D5" s="23">
-        <v>8</v>
-      </c>
+      <c r="B5" s="29"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="23"/>
       <c r="E5" s="13"/>
       <c r="K5" s="13"/>
       <c r="L5" s="6"/>
@@ -2686,12 +2680,8 @@
       <c r="A6" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="29">
-        <v>3</v>
-      </c>
-      <c r="C6" s="22">
-        <v>1</v>
-      </c>
+      <c r="B6" s="29"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="23"/>
     </row>
     <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1">
@@ -2704,11 +2694,11 @@
       </c>
       <c r="C7" s="12">
         <f>MAX(C5-C6,0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D7" s="12">
         <f>MAX(D5-D6,0)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="20.100000000000001" customHeight="1">
@@ -2829,19 +2819,13 @@
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
-      <c r="E13" s="21">
-        <v>3</v>
-      </c>
-      <c r="F13" s="21">
-        <v>5</v>
-      </c>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
       <c r="J13" s="21"/>
-      <c r="K13" s="22">
-        <v>5</v>
-      </c>
+      <c r="K13" s="22"/>
     </row>
     <row r="14" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A14" s="24" t="s">
@@ -2850,12 +2834,8 @@
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
-      <c r="E14" s="21">
-        <v>4</v>
-      </c>
-      <c r="F14" s="21">
-        <v>3</v>
-      </c>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
@@ -2869,11 +2849,11 @@
       </c>
       <c r="B15" s="12">
         <f>MAX(D7+B13-B14,0)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C15" s="12">
         <f>MAX(C7+C13-C14,0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D15" s="12">
         <f>MAX(D13-D14,0)</f>
@@ -2885,15 +2865,15 @@
       </c>
       <c r="F15" s="12">
         <f>MAX(D7+F13-F14,0)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G15" s="12">
         <f>MAX(D7+G13-G14,0)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H15" s="12">
         <f>MAX(2*C7+H13-H14,0)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I15" s="12">
         <f>MAX(B7+I13-I14,0)</f>
@@ -2905,7 +2885,7 @@
       </c>
       <c r="K15" s="12">
         <f>MAX(B7+K13-K14,0)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L15" s="6"/>
     </row>
@@ -3023,23 +3003,13 @@
       </c>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
-      <c r="D21" s="21">
-        <v>3</v>
-      </c>
-      <c r="E21" s="21">
-        <v>4</v>
-      </c>
-      <c r="F21" s="21">
-        <v>3</v>
-      </c>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
       <c r="G21" s="21"/>
-      <c r="H21" s="21">
-        <v>1</v>
-      </c>
+      <c r="H21" s="21"/>
       <c r="I21" s="21"/>
-      <c r="J21" s="21">
-        <v>3</v>
-      </c>
+      <c r="J21" s="21"/>
       <c r="K21" s="22"/>
     </row>
     <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
@@ -3063,43 +3033,43 @@
       </c>
       <c r="B23" s="12">
         <f>MAX(2*(C15+K15)+4*B15+B21-B22,0)</f>
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="C23" s="12">
         <f>MAX(C15+F15+I15+C21-C22,0)</f>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D23" s="12">
         <f>MAX(2*D15+F15+J15+D21-D22,0)</f>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E23" s="12">
         <f>MAX(G15+H15+2*E15-E22+E21,0)</f>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F23" s="12">
         <f>MAX(2*F15+E15+I15+F21-F22,0)</f>
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="G23" s="12">
         <f>MAX(K15+2*G15+D15+G21-G22,0)</f>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H23" s="12">
         <f>MAX(D15+H15+J15+H21-H22,0)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I23" s="12">
         <f>MAX(I15+C15+I21-I22,0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J23" s="12">
         <f>MAX(2*J15+G15+E15+J21-J22,0)</f>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K23" s="12">
         <f>MAX(H15+K15+K21-K22,0)</f>
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="20.100000000000001" customHeight="1">
@@ -3229,30 +3199,31 @@
       </c>
       <c r="B31" s="12">
         <f>MAX(5*B23+B29-B30,0)</f>
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="C31" s="12">
         <f>MAX(4*C23+C29-C30,0)</f>
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="D31" s="12">
         <f>MAX(4*D23+D29-D30,0)</f>
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="E31" s="12">
         <f>MAX(4*E23+E29-E30,0)</f>
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="F31" s="12">
         <f>MAX(4*F23+F29-F30,0)</f>
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="G31" s="12">
         <f>MAX(4*G23+G29-G30,0)</f>
-        <v>84</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
     <mergeCell ref="F1:K1"/>
     <mergeCell ref="F2:K2"/>
